--- a/Curious Freaks Coding Sheet.xlsx
+++ b/Curious Freaks Coding Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakth\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS\DSA NR sol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A54AB1D-AD1B-4F9C-BF8C-1B02EBE2AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C827C-3426-4A93-9050-793EECE6020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="991">
   <si>
     <t>Curious freaks CODING SHEET by Nandhini</t>
   </si>
@@ -3193,6 +3193,9 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -3967,19 +3970,10 @@
     <xf numFmtId="0" fontId="50" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4022,6 +4016,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4242,8 +4245,8 @@
   </sheetPr>
   <dimension ref="A1:G1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4257,7 +4260,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="72"/>
@@ -4268,7 +4271,7 @@
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="15.6">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="72"/>
@@ -4279,7 +4282,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.6">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="95" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="72"/>
@@ -4290,7 +4293,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="13.8">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="94" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="72"/>
@@ -4301,7 +4304,7 @@
       <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:7" ht="15.6">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="72"/>
@@ -4312,7 +4315,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="13.8">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="72"/>
@@ -4323,18 +4326,18 @@
       <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:7" ht="13.2">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="13.2">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="82" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="72"/>
@@ -4342,18 +4345,18 @@
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="72"/>
-      <c r="G8" s="86"/>
+      <c r="G8" s="83"/>
     </row>
     <row r="9" spans="1:7" ht="13.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="2"/>
@@ -4365,7 +4368,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="13.2">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="86" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="72"/>
@@ -5193,7 +5196,7 @@
       <c r="A63" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="90" t="s">
+      <c r="B63" s="87" t="s">
         <v>111</v>
       </c>
       <c r="C63" s="72"/>
@@ -6248,7 +6251,9 @@
       <c r="E130" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="F130" s="17"/>
+      <c r="F130" s="17" t="s">
+        <v>990</v>
+      </c>
       <c r="G130" s="17"/>
     </row>
     <row r="131" spans="1:7" ht="26.4">
@@ -6299,7 +6304,9 @@
       <c r="E133" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="F133" s="24"/>
+      <c r="F133" s="24" t="s">
+        <v>990</v>
+      </c>
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" ht="13.2">
@@ -12688,7 +12695,7 @@
       <c r="G536" s="65"/>
     </row>
     <row r="537" spans="1:7" ht="13.2">
-      <c r="A537" s="91" t="s">
+      <c r="A537" s="88" t="s">
         <v>980</v>
       </c>
       <c r="B537" s="72"/>
@@ -12699,7 +12706,7 @@
       <c r="G537" s="12"/>
     </row>
     <row r="538" spans="1:7" ht="13.2">
-      <c r="A538" s="92" t="s">
+      <c r="A538" s="89" t="s">
         <v>981</v>
       </c>
       <c r="B538" s="72"/>
@@ -12727,12 +12734,12 @@
       <c r="A541" s="67" t="s">
         <v>982</v>
       </c>
-      <c r="B541" s="93" t="s">
+      <c r="B541" s="90" t="s">
         <v>983</v>
       </c>
-      <c r="C541" s="94"/>
-      <c r="D541" s="94"/>
-      <c r="E541" s="95"/>
+      <c r="C541" s="91"/>
+      <c r="D541" s="91"/>
+      <c r="E541" s="92"/>
       <c r="F541" s="68"/>
       <c r="G541" s="68"/>
     </row>
@@ -12740,12 +12747,12 @@
       <c r="A542" s="69" t="s">
         <v>984</v>
       </c>
-      <c r="B542" s="79" t="s">
+      <c r="B542" s="76" t="s">
         <v>985</v>
       </c>
       <c r="C542" s="72"/>
       <c r="D542" s="72"/>
-      <c r="E542" s="80"/>
+      <c r="E542" s="77"/>
       <c r="F542" s="68"/>
       <c r="G542" s="68"/>
     </row>
@@ -12753,17 +12760,17 @@
       <c r="A543" s="70" t="s">
         <v>986</v>
       </c>
-      <c r="B543" s="81" t="s">
+      <c r="B543" s="78" t="s">
         <v>987</v>
       </c>
-      <c r="C543" s="82"/>
-      <c r="D543" s="82"/>
-      <c r="E543" s="83"/>
+      <c r="C543" s="79"/>
+      <c r="D543" s="79"/>
+      <c r="E543" s="80"/>
       <c r="F543" s="68"/>
       <c r="G543" s="68"/>
     </row>
     <row r="544" spans="1:7" ht="13.8">
-      <c r="A544" s="84" t="s">
+      <c r="A544" s="81" t="s">
         <v>988</v>
       </c>
       <c r="B544" s="72"/>
@@ -17580,6 +17587,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B542:E542"/>
@@ -17592,11 +17604,6 @@
     <mergeCell ref="A537:E537"/>
     <mergeCell ref="A538:E538"/>
     <mergeCell ref="B541:E541"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
